--- a/业务项目手账/2019-08-16-工作追踪/WD-RL-BG-043月度总结表.xlsx
+++ b/业务项目手账/2019-08-16-工作追踪/WD-RL-BG-043月度总结表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szdjy\Desktop\创世纪\工作\2019-08\2019-08-16-工作追踪\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A1732F-B198-4FB0-9C43-6D0DA9B88E82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308D367C-5D9E-4E90-A083-ED825C4B767F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,6 +365,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -397,45 +436,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -714,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:G13"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -730,26 +730,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -767,10 +767,10 @@
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="6">
         <v>43633</v>
       </c>
-      <c r="G3" s="17"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -788,309 +788,298 @@
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="17"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="47" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="267" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
     </row>
     <row r="13" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
     </row>
     <row r="14" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="15" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
     </row>
     <row r="21" spans="1:7" ht="132" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25"/>
     </row>
     <row r="22" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="15" t="s">
+      <c r="A22" s="21"/>
+      <c r="B22" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="16"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23"/>
     </row>
     <row r="24" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25"/>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="12"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="25"/>
     </row>
     <row r="26" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="12"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="25"/>
     </row>
     <row r="27" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="12"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
     </row>
     <row r="28" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="12"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="25"/>
     </row>
     <row r="29" spans="1:7" ht="132" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="12"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
     </row>
     <row r="30" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="15" t="s">
+      <c r="A30" s="21"/>
+      <c r="B30" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="16"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:7" ht="49" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="4"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="17"/>
     </row>
     <row r="33" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="E31:G31"/>
     <mergeCell ref="A32:G32"/>
     <mergeCell ref="A33:G33"/>
     <mergeCell ref="A7:A14"/>
@@ -1099,10 +1088,21 @@
     <mergeCell ref="B7:G13"/>
     <mergeCell ref="B15:G21"/>
     <mergeCell ref="B23:G29"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A5:G5"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.62986111111111098" right="0.43263888888888902" top="1" bottom="0.27500000000000002" header="0.51180555555555596" footer="0.196527777777778"/>
-  <pageSetup paperSize="9" scale="94" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="94" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="14" max="16383" man="1"/>
   </rowBreaks>
